--- a/Cleaned-Data/2018-Passouts/Sem-3_2018_Passout_cleaned.xlsx
+++ b/Cleaned-Data/2018-Passouts/Sem-3_2018_Passout_cleaned.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="233">
   <si>
     <t>M3-TH</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>--</t>
   </si>
   <si>
     <t>P</t>
@@ -1106,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G56" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="117.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1142,13 +1139,13 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -1211,15 +1208,15 @@
         <v>19</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
@@ -1290,13 +1287,13 @@
       <c r="X2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>21</v>
+      <c r="Y2" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -1367,13 +1364,13 @@
       <c r="X3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y3" s="2" t="s">
-        <v>21</v>
+      <c r="Y3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
@@ -1444,13 +1441,13 @@
       <c r="X4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y4" s="2" t="s">
-        <v>21</v>
+      <c r="Y4" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
@@ -1519,7 +1516,7 @@
         <v>24</v>
       </c>
       <c r="X5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y5" s="2">
         <v>6.96</v>
@@ -1527,7 +1524,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
@@ -1598,13 +1595,13 @@
       <c r="X6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y6" s="2" t="s">
-        <v>21</v>
+      <c r="Y6" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
@@ -1673,7 +1670,7 @@
         <v>22</v>
       </c>
       <c r="X7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y7" s="2">
         <v>9.57</v>
@@ -1681,7 +1678,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -1750,7 +1747,7 @@
         <v>20</v>
       </c>
       <c r="X8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y8" s="2">
         <v>7.54</v>
@@ -1758,7 +1755,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
@@ -1829,13 +1826,13 @@
       <c r="X9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y9" s="2" t="s">
-        <v>21</v>
+      <c r="Y9" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5">
         <v>0</v>
@@ -1904,7 +1901,7 @@
         <v>24</v>
       </c>
       <c r="X10" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y10" s="2">
         <v>7.11</v>
@@ -1912,7 +1909,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
@@ -1981,7 +1978,7 @@
         <v>22</v>
       </c>
       <c r="X11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y11" s="2">
         <v>7.5</v>
@@ -1989,7 +1986,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="5">
         <v>0</v>
@@ -2060,13 +2057,13 @@
       <c r="X12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y12" s="2" t="s">
-        <v>21</v>
+      <c r="Y12" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -2135,7 +2132,7 @@
         <v>20</v>
       </c>
       <c r="X13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y13" s="2">
         <v>7</v>
@@ -2143,7 +2140,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="5">
         <v>0</v>
@@ -2212,7 +2209,7 @@
         <v>19</v>
       </c>
       <c r="X14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y14" s="2">
         <v>8.0399999999999991</v>
@@ -2220,7 +2217,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="5">
         <v>0</v>
@@ -2291,13 +2288,13 @@
       <c r="X15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y15" s="2" t="s">
-        <v>21</v>
+      <c r="Y15" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
@@ -2366,7 +2363,7 @@
         <v>24</v>
       </c>
       <c r="X16" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y16" s="2">
         <v>7.71</v>
@@ -2374,7 +2371,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="5">
         <v>0</v>
@@ -2445,13 +2442,13 @@
       <c r="X17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y17" s="2" t="s">
-        <v>21</v>
+      <c r="Y17" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="5">
         <v>0</v>
@@ -2522,13 +2519,13 @@
       <c r="X18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y18" s="2" t="s">
-        <v>21</v>
+      <c r="Y18" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="5">
         <v>0</v>
@@ -2599,13 +2596,13 @@
       <c r="X19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y19" s="2" t="s">
-        <v>21</v>
+      <c r="Y19" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B20" s="5">
         <v>1</v>
@@ -2674,7 +2671,7 @@
         <v>22</v>
       </c>
       <c r="X20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y20" s="2">
         <v>8.32</v>
@@ -2682,7 +2679,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="5">
         <v>0</v>
@@ -2751,7 +2748,7 @@
         <v>23</v>
       </c>
       <c r="X21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y21" s="2">
         <v>8.25</v>
@@ -2759,7 +2756,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B22" s="5">
         <v>1</v>
@@ -2828,7 +2825,7 @@
         <v>23</v>
       </c>
       <c r="X22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y22" s="2">
         <v>8.4600000000000009</v>
@@ -2836,7 +2833,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B23" s="5">
         <v>1</v>
@@ -2907,13 +2904,13 @@
       <c r="X23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y23" s="2" t="s">
-        <v>21</v>
+      <c r="Y23" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B24" s="5">
         <v>1</v>
@@ -2982,7 +2979,7 @@
         <v>23</v>
       </c>
       <c r="X24" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y24" s="2">
         <v>7.43</v>
@@ -2990,7 +2987,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="5">
         <v>0</v>
@@ -3059,7 +3056,7 @@
         <v>23</v>
       </c>
       <c r="X25" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y25" s="2">
         <v>7.64</v>
@@ -3067,7 +3064,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B26" s="5">
         <v>1</v>
@@ -3138,13 +3135,13 @@
       <c r="X26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y26" s="2" t="s">
-        <v>21</v>
+      <c r="Y26" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="5">
         <v>0</v>
@@ -3215,13 +3212,13 @@
       <c r="X27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y27" s="2" t="s">
-        <v>21</v>
+      <c r="Y27" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="5">
         <v>0</v>
@@ -3292,13 +3289,13 @@
       <c r="X28" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y28" s="2" t="s">
-        <v>21</v>
+      <c r="Y28" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="5">
         <v>0</v>
@@ -3367,7 +3364,7 @@
         <v>23</v>
       </c>
       <c r="X29" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y29" s="2">
         <v>8.18</v>
@@ -3375,7 +3372,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="5">
         <v>0</v>
@@ -3446,13 +3443,13 @@
       <c r="X30" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y30" s="2" t="s">
-        <v>21</v>
+      <c r="Y30" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B31" s="5">
         <v>1</v>
@@ -3521,7 +3518,7 @@
         <v>22</v>
       </c>
       <c r="X31" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y31" s="2">
         <v>7.54</v>
@@ -3529,7 +3526,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="5">
         <v>0</v>
@@ -3600,13 +3597,13 @@
       <c r="X32" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y32" s="2" t="s">
-        <v>21</v>
+      <c r="Y32" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B33" s="5">
         <v>1</v>
@@ -3677,13 +3674,13 @@
       <c r="X33" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y33" s="2" t="s">
-        <v>21</v>
+      <c r="Y33" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" s="5">
         <v>0</v>
@@ -3752,7 +3749,7 @@
         <v>21</v>
       </c>
       <c r="X34" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y34" s="2">
         <v>7.11</v>
@@ -3760,7 +3757,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="5">
         <v>0</v>
@@ -3831,13 +3828,13 @@
       <c r="X35" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y35" s="2" t="s">
-        <v>21</v>
+      <c r="Y35" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="5">
         <v>0</v>
@@ -3908,13 +3905,13 @@
       <c r="X36" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y36" s="2" t="s">
-        <v>21</v>
+      <c r="Y36" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="5">
         <v>0</v>
@@ -3983,7 +3980,7 @@
         <v>22</v>
       </c>
       <c r="X37" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y37" s="2">
         <v>8.32</v>
@@ -3991,7 +3988,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B38" s="5">
         <v>1</v>
@@ -4062,13 +4059,13 @@
       <c r="X38" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y38" s="2" t="s">
-        <v>21</v>
+      <c r="Y38" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B39" s="5">
         <v>1</v>
@@ -4137,7 +4134,7 @@
         <v>24</v>
       </c>
       <c r="X39" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y39" s="2">
         <v>9</v>
@@ -4145,7 +4142,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" s="5">
         <v>0</v>
@@ -4214,7 +4211,7 @@
         <v>24</v>
       </c>
       <c r="X40" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y40" s="2">
         <v>7.18</v>
@@ -4222,7 +4219,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="5">
         <v>0</v>
@@ -4293,13 +4290,13 @@
       <c r="X41" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y41" s="2" t="s">
-        <v>21</v>
+      <c r="Y41" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" s="5">
         <v>0</v>
@@ -4370,13 +4367,13 @@
       <c r="X42" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y42" s="2" t="s">
-        <v>21</v>
+      <c r="Y42" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" s="5">
         <v>0</v>
@@ -4447,13 +4444,13 @@
       <c r="X43" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y43" s="2" t="s">
-        <v>21</v>
+      <c r="Y43" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" s="5">
         <v>0</v>
@@ -4522,7 +4519,7 @@
         <v>22</v>
       </c>
       <c r="X44" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y44" s="2">
         <v>8.18</v>
@@ -4530,7 +4527,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45" s="5">
         <v>0</v>
@@ -4599,7 +4596,7 @@
         <v>22</v>
       </c>
       <c r="X45" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y45" s="2">
         <v>7.32</v>
@@ -4607,7 +4604,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" s="5">
         <v>0</v>
@@ -4678,13 +4675,13 @@
       <c r="X46" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y46" s="2" t="s">
-        <v>21</v>
+      <c r="Y46" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" s="5">
         <v>0</v>
@@ -4753,7 +4750,7 @@
         <v>20</v>
       </c>
       <c r="X47" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y47" s="2">
         <v>6.39</v>
@@ -4761,7 +4758,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48" s="5">
         <v>0</v>
@@ -4830,7 +4827,7 @@
         <v>23</v>
       </c>
       <c r="X48" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y48" s="2">
         <v>6.93</v>
@@ -4838,7 +4835,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49" s="5">
         <v>0</v>
@@ -4909,13 +4906,13 @@
       <c r="X49" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y49" s="2" t="s">
-        <v>21</v>
+      <c r="Y49" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50" s="5">
         <v>0</v>
@@ -4984,7 +4981,7 @@
         <v>23</v>
       </c>
       <c r="X50" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y50" s="2">
         <v>8</v>
@@ -4992,7 +4989,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B51" s="5">
         <v>1</v>
@@ -5061,7 +5058,7 @@
         <v>23</v>
       </c>
       <c r="X51" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y51" s="2">
         <v>8.57</v>
@@ -5069,7 +5066,7 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B52" s="5">
         <v>1</v>
@@ -5138,7 +5135,7 @@
         <v>24</v>
       </c>
       <c r="X52" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y52" s="2">
         <v>8.18</v>
@@ -5146,7 +5143,7 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B53" s="5">
         <v>0</v>
@@ -5215,7 +5212,7 @@
         <v>21</v>
       </c>
       <c r="X53" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y53" s="2">
         <v>6.54</v>
@@ -5223,7 +5220,7 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B54" s="5">
         <v>1</v>
@@ -5292,7 +5289,7 @@
         <v>22</v>
       </c>
       <c r="X54" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y54" s="2">
         <v>8.57</v>
@@ -5300,7 +5297,7 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B55" s="5">
         <v>0</v>
@@ -5369,7 +5366,7 @@
         <v>22</v>
       </c>
       <c r="X55" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y55" s="2">
         <v>7.21</v>
@@ -5377,7 +5374,7 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B56" s="5">
         <v>0</v>
@@ -5448,13 +5445,13 @@
       <c r="X56" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y56" s="2" t="s">
-        <v>21</v>
+      <c r="Y56" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B57" s="5">
         <v>0</v>
@@ -5525,13 +5522,13 @@
       <c r="X57" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y57" s="2" t="s">
-        <v>21</v>
+      <c r="Y57" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B58" s="5">
         <v>1</v>
@@ -5600,7 +5597,7 @@
         <v>20</v>
       </c>
       <c r="X58" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y58" s="2">
         <v>6.54</v>
@@ -5608,7 +5605,7 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59" s="5">
         <v>0</v>
@@ -5679,13 +5676,13 @@
       <c r="X59" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y59" s="2" t="s">
-        <v>21</v>
+      <c r="Y59" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" s="5">
         <v>0</v>
@@ -5754,7 +5751,7 @@
         <v>17</v>
       </c>
       <c r="X60" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y60" s="2">
         <v>6.46</v>
@@ -5762,7 +5759,7 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" s="5">
         <v>0</v>
@@ -5831,7 +5828,7 @@
         <v>24</v>
       </c>
       <c r="X61" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y61" s="2">
         <v>7.21</v>
@@ -5839,7 +5836,7 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B62" s="5">
         <v>1</v>
@@ -5910,13 +5907,13 @@
       <c r="X62" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y62" s="2" t="s">
-        <v>21</v>
+      <c r="Y62" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63" s="5">
         <v>0</v>
@@ -5987,13 +5984,13 @@
       <c r="X63" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y63" s="2" t="s">
-        <v>21</v>
+      <c r="Y63" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B64" s="5">
         <v>1</v>
@@ -6064,13 +6061,13 @@
       <c r="X64" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y64" s="2" t="s">
-        <v>21</v>
+      <c r="Y64" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B65" s="5">
         <v>1</v>
@@ -6141,13 +6138,13 @@
       <c r="X65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y65" s="2" t="s">
-        <v>21</v>
+      <c r="Y65" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" s="5">
         <v>0</v>
@@ -6218,13 +6215,13 @@
       <c r="X66" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y66" s="2" t="s">
-        <v>21</v>
+      <c r="Y66" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" s="5">
         <v>0</v>
@@ -6295,13 +6292,13 @@
       <c r="X67" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y67" s="2" t="s">
-        <v>21</v>
+      <c r="Y67" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" s="5">
         <v>0</v>
@@ -6370,7 +6367,7 @@
         <v>20</v>
       </c>
       <c r="X68" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y68" s="2">
         <v>7.64</v>
@@ -6378,7 +6375,7 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" s="5">
         <v>0</v>
@@ -6447,7 +6444,7 @@
         <v>23</v>
       </c>
       <c r="X69" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y69" s="2">
         <v>8.07</v>
@@ -6455,7 +6452,7 @@
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" s="5">
         <v>0</v>
@@ -6524,7 +6521,7 @@
         <v>20</v>
       </c>
       <c r="X70" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y70" s="2">
         <v>7.07</v>
@@ -6532,7 +6529,7 @@
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" s="5">
         <v>0</v>
@@ -6603,13 +6600,13 @@
       <c r="X71" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y71" s="2" t="s">
-        <v>21</v>
+      <c r="Y71" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" s="5">
         <v>0</v>
@@ -6678,7 +6675,7 @@
         <v>22</v>
       </c>
       <c r="X72" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y72" s="2">
         <v>6.96</v>
@@ -6686,7 +6683,7 @@
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" s="5">
         <v>0</v>
@@ -6757,13 +6754,13 @@
       <c r="X73" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y73" s="2" t="s">
-        <v>21</v>
+      <c r="Y73" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" s="5">
         <v>0</v>
@@ -6832,7 +6829,7 @@
         <v>24</v>
       </c>
       <c r="X74" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y74" s="2">
         <v>9.57</v>
@@ -6840,7 +6837,7 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B75" s="5">
         <v>1</v>
@@ -6909,7 +6906,7 @@
         <v>23</v>
       </c>
       <c r="X75" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y75" s="2">
         <v>7.75</v>
@@ -6917,7 +6914,7 @@
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" s="5">
         <v>0</v>
@@ -6986,7 +6983,7 @@
         <v>21</v>
       </c>
       <c r="X76" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y76" s="2">
         <v>6.68</v>
@@ -6994,7 +6991,7 @@
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77" s="5">
         <v>0</v>
@@ -7065,13 +7062,13 @@
       <c r="X77" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y77" s="2" t="s">
-        <v>21</v>
+      <c r="Y77" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B78" s="5">
         <v>1</v>
@@ -7140,7 +7137,7 @@
         <v>22</v>
       </c>
       <c r="X78" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y78" s="2">
         <v>7.75</v>
@@ -7148,7 +7145,7 @@
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" s="5">
         <v>0</v>
@@ -7217,7 +7214,7 @@
         <v>22</v>
       </c>
       <c r="X79" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y79" s="2">
         <v>7.46</v>
@@ -7225,7 +7222,7 @@
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" s="5">
         <v>0</v>
@@ -7294,7 +7291,7 @@
         <v>22</v>
       </c>
       <c r="X80" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y80" s="2">
         <v>8.2899999999999991</v>
@@ -7302,7 +7299,7 @@
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B81" s="5">
         <v>1</v>
@@ -7371,7 +7368,7 @@
         <v>23</v>
       </c>
       <c r="X81" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y81" s="2">
         <v>9</v>
@@ -7379,7 +7376,7 @@
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" s="5">
         <v>0</v>
@@ -7448,7 +7445,7 @@
         <v>24</v>
       </c>
       <c r="X82" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y82" s="2">
         <v>7.82</v>
@@ -7456,7 +7453,7 @@
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B83" s="5">
         <v>1</v>
@@ -7527,13 +7524,13 @@
       <c r="X83" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y83" s="2" t="s">
-        <v>21</v>
+      <c r="Y83" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="5">
         <v>0</v>
@@ -7602,7 +7599,7 @@
         <v>23</v>
       </c>
       <c r="X84" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y84" s="2">
         <v>9.14</v>
@@ -7610,7 +7607,7 @@
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B85" s="5">
         <v>1</v>
@@ -7679,7 +7676,7 @@
         <v>22</v>
       </c>
       <c r="X85" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y85" s="2">
         <v>7.86</v>
@@ -7687,7 +7684,7 @@
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" s="5">
         <v>0</v>
@@ -7758,13 +7755,13 @@
       <c r="X86" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y86" s="2" t="s">
-        <v>21</v>
+      <c r="Y86" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B87" s="5">
         <v>1</v>
@@ -7833,7 +7830,7 @@
         <v>21</v>
       </c>
       <c r="X87" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y87" s="2">
         <v>8.7100000000000009</v>
@@ -7841,7 +7838,7 @@
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B88" s="5">
         <v>0</v>
@@ -7910,7 +7907,7 @@
         <v>22</v>
       </c>
       <c r="X88" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y88" s="2">
         <v>6.86</v>
@@ -7918,7 +7915,7 @@
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B89" s="5">
         <v>1</v>
@@ -7989,13 +7986,13 @@
       <c r="X89" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y89" s="2" t="s">
-        <v>21</v>
+      <c r="Y89" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B90" s="5">
         <v>0</v>
@@ -8066,13 +8063,13 @@
       <c r="X90" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y90" s="2" t="s">
-        <v>21</v>
+      <c r="Y90" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B91" s="5">
         <v>1</v>
@@ -8141,7 +8138,7 @@
         <v>23</v>
       </c>
       <c r="X91" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y91" s="2">
         <v>8.18</v>
@@ -8149,7 +8146,7 @@
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B92" s="5">
         <v>0</v>
@@ -8220,13 +8217,13 @@
       <c r="X92" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y92" s="2" t="s">
-        <v>21</v>
+      <c r="Y92" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B93" s="5">
         <v>0</v>
@@ -8297,13 +8294,13 @@
       <c r="X93" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y93" s="2" t="s">
-        <v>21</v>
+      <c r="Y93" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B94" s="5">
         <v>1</v>
@@ -8374,13 +8371,13 @@
       <c r="X94" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y94" s="2" t="s">
-        <v>21</v>
+      <c r="Y94" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B95" s="5">
         <v>0</v>
@@ -8449,7 +8446,7 @@
         <v>22</v>
       </c>
       <c r="X95" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y95" s="2">
         <v>7.36</v>
@@ -8457,7 +8454,7 @@
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B96" s="5">
         <v>0</v>
@@ -8528,13 +8525,13 @@
       <c r="X96" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y96" s="2" t="s">
-        <v>21</v>
+      <c r="Y96" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B97" s="5">
         <v>0</v>
@@ -8605,13 +8602,13 @@
       <c r="X97" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y97" s="2" t="s">
-        <v>21</v>
+      <c r="Y97" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B98" s="5">
         <v>0</v>
@@ -8680,7 +8677,7 @@
         <v>17</v>
       </c>
       <c r="X98" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y98" s="2">
         <v>7.39</v>
@@ -8688,7 +8685,7 @@
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B99" s="5">
         <v>0</v>
@@ -8757,7 +8754,7 @@
         <v>19</v>
       </c>
       <c r="X99" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y99" s="2">
         <v>6.46</v>
@@ -8765,7 +8762,7 @@
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B100" s="5">
         <v>0</v>
@@ -8836,13 +8833,13 @@
       <c r="X100" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y100" s="2" t="s">
-        <v>21</v>
+      <c r="Y100" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B101" s="5">
         <v>0</v>
@@ -8913,13 +8910,13 @@
       <c r="X101" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y101" s="2" t="s">
-        <v>21</v>
+      <c r="Y101" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B102" s="5">
         <v>0</v>
@@ -8988,7 +8985,7 @@
         <v>24</v>
       </c>
       <c r="X102" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y102" s="2">
         <v>6.96</v>
@@ -8996,7 +8993,7 @@
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B103" s="5">
         <v>0</v>
@@ -9067,13 +9064,13 @@
       <c r="X103" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y103" s="2" t="s">
-        <v>21</v>
+      <c r="Y103" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B104" s="5">
         <v>0</v>
@@ -9142,7 +9139,7 @@
         <v>22</v>
       </c>
       <c r="X104" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y104" s="2">
         <v>6.14</v>
@@ -9150,7 +9147,7 @@
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B105" s="5">
         <v>1</v>
@@ -9221,13 +9218,13 @@
       <c r="X105" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y105" s="2" t="s">
-        <v>21</v>
+      <c r="Y105" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B106" s="5">
         <v>1</v>
@@ -9296,7 +9293,7 @@
         <v>24</v>
       </c>
       <c r="X106" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y106" s="2">
         <v>9.18</v>
@@ -9304,7 +9301,7 @@
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B107" s="5">
         <v>0</v>
@@ -9373,7 +9370,7 @@
         <v>24</v>
       </c>
       <c r="X107" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y107" s="2">
         <v>6.43</v>
@@ -9381,7 +9378,7 @@
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B108" s="5">
         <v>0</v>
@@ -9450,7 +9447,7 @@
         <v>21</v>
       </c>
       <c r="X108" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y108" s="2">
         <v>6.71</v>
@@ -9458,7 +9455,7 @@
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B109" s="5">
         <v>0</v>
@@ -9529,13 +9526,13 @@
       <c r="X109" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y109" s="2" t="s">
-        <v>21</v>
+      <c r="Y109" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B110" s="5">
         <v>0</v>
@@ -9606,13 +9603,13 @@
       <c r="X110" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y110" s="2" t="s">
-        <v>21</v>
+      <c r="Y110" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B111" s="5">
         <v>1</v>
@@ -9683,13 +9680,13 @@
       <c r="X111" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y111" s="2" t="s">
-        <v>21</v>
+      <c r="Y111" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B112" s="5">
         <v>0</v>
@@ -9758,7 +9755,7 @@
         <v>21</v>
       </c>
       <c r="X112" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y112" s="2">
         <v>8.07</v>
@@ -9766,7 +9763,7 @@
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B113" s="5">
         <v>0</v>
@@ -9835,7 +9832,7 @@
         <v>21</v>
       </c>
       <c r="X113" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y113" s="2">
         <v>8.89</v>
@@ -9843,7 +9840,7 @@
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B114" s="5">
         <v>0</v>
@@ -9914,13 +9911,13 @@
       <c r="X114" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y114" s="2" t="s">
-        <v>21</v>
+      <c r="Y114" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B115" s="5">
         <v>0</v>
@@ -9991,13 +9988,13 @@
       <c r="X115" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y115" s="2" t="s">
-        <v>21</v>
+      <c r="Y115" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B116" s="5">
         <v>1</v>
@@ -10066,7 +10063,7 @@
         <v>22</v>
       </c>
       <c r="X116" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y116" s="2">
         <v>6.86</v>
@@ -10074,7 +10071,7 @@
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B117" s="5">
         <v>0</v>
@@ -10145,13 +10142,13 @@
       <c r="X117" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y117" s="2" t="s">
-        <v>21</v>
+      <c r="Y117" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B118" s="5">
         <v>0</v>
@@ -10222,13 +10219,13 @@
       <c r="X118" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y118" s="2" t="s">
-        <v>21</v>
+      <c r="Y118" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B119" s="5">
         <v>0</v>
@@ -10297,7 +10294,7 @@
         <v>24</v>
       </c>
       <c r="X119" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y119" s="2">
         <v>9.43</v>
@@ -10305,7 +10302,7 @@
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B120" s="5">
         <v>0</v>
@@ -10374,7 +10371,7 @@
         <v>21</v>
       </c>
       <c r="X120" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y120" s="2">
         <v>7.32</v>
@@ -10382,7 +10379,7 @@
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B121" s="5">
         <v>0</v>
@@ -10453,13 +10450,13 @@
       <c r="X121" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y121" s="2" t="s">
-        <v>21</v>
+      <c r="Y121" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B122" s="5">
         <v>1</v>
@@ -10528,7 +10525,7 @@
         <v>20</v>
       </c>
       <c r="X122" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y122" s="2">
         <v>7.04</v>
@@ -10536,7 +10533,7 @@
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B123" s="5">
         <v>0</v>
@@ -10605,7 +10602,7 @@
         <v>20</v>
       </c>
       <c r="X123" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y123" s="2">
         <v>7.54</v>
@@ -10613,7 +10610,7 @@
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B124" s="5">
         <v>0</v>
@@ -10684,13 +10681,13 @@
       <c r="X124" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y124" s="2" t="s">
-        <v>21</v>
+      <c r="Y124" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B125" s="5">
         <v>1</v>
@@ -10761,13 +10758,13 @@
       <c r="X125" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y125" s="2" t="s">
-        <v>21</v>
+      <c r="Y125" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B126" s="5">
         <v>0</v>
@@ -10836,7 +10833,7 @@
         <v>19</v>
       </c>
       <c r="X126" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y126" s="2">
         <v>8.07</v>
@@ -10844,7 +10841,7 @@
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B127" s="5">
         <v>1</v>
@@ -10915,13 +10912,13 @@
       <c r="X127" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y127" s="2" t="s">
-        <v>21</v>
+      <c r="Y127" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B128" s="5">
         <v>0</v>
@@ -10992,13 +10989,13 @@
       <c r="X128" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y128" s="2" t="s">
-        <v>21</v>
+      <c r="Y128" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B129" s="5">
         <v>0</v>
@@ -11069,13 +11066,13 @@
       <c r="X129" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y129" s="2" t="s">
-        <v>21</v>
+      <c r="Y129" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B130" s="5">
         <v>0</v>
@@ -11146,13 +11143,13 @@
       <c r="X130" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y130" s="2" t="s">
-        <v>21</v>
+      <c r="Y130" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B131" s="5">
         <v>0</v>
@@ -11221,7 +11218,7 @@
         <v>23</v>
       </c>
       <c r="X131" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y131" s="2">
         <v>7.68</v>
@@ -11229,7 +11226,7 @@
     </row>
     <row r="132" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B132" s="5">
         <v>0</v>
@@ -11298,7 +11295,7 @@
         <v>23</v>
       </c>
       <c r="X132" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y132" s="2">
         <v>8.5</v>
@@ -11306,7 +11303,7 @@
     </row>
     <row r="133" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B133" s="5">
         <v>0</v>
@@ -11375,7 +11372,7 @@
         <v>16</v>
       </c>
       <c r="X133" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y133" s="2">
         <v>6</v>
@@ -11383,7 +11380,7 @@
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B134" s="5">
         <v>0</v>
@@ -11454,13 +11451,13 @@
       <c r="X134" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y134" s="2" t="s">
-        <v>21</v>
+      <c r="Y134" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B135" s="5">
         <v>0</v>
@@ -11531,13 +11528,13 @@
       <c r="X135" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y135" s="2" t="s">
-        <v>21</v>
+      <c r="Y135" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B136" s="5">
         <v>0</v>
@@ -11606,7 +11603,7 @@
         <v>19</v>
       </c>
       <c r="X136" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y136" s="2">
         <v>7.68</v>
@@ -11614,7 +11611,7 @@
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B137" s="5">
         <v>1</v>
@@ -11683,7 +11680,7 @@
         <v>22</v>
       </c>
       <c r="X137" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y137" s="2">
         <v>7.68</v>
@@ -11691,7 +11688,7 @@
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B138" s="5">
         <v>0</v>
@@ -11762,13 +11759,13 @@
       <c r="X138" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y138" s="2" t="s">
-        <v>21</v>
+      <c r="Y138" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B139" s="5">
         <v>1</v>
@@ -11837,7 +11834,7 @@
         <v>24</v>
       </c>
       <c r="X139" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y139" s="2">
         <v>6.39</v>
@@ -11845,7 +11842,7 @@
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B140" s="5">
         <v>0</v>
@@ -11916,13 +11913,13 @@
       <c r="X140" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y140" s="2" t="s">
-        <v>21</v>
+      <c r="Y140" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B141" s="5">
         <v>1</v>
@@ -11993,13 +11990,13 @@
       <c r="X141" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y141" s="2" t="s">
-        <v>21</v>
+      <c r="Y141" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B142" s="5">
         <v>0</v>
@@ -12070,13 +12067,13 @@
       <c r="X142" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y142" s="2" t="s">
-        <v>21</v>
+      <c r="Y142" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B143" s="5">
         <v>0</v>
@@ -12145,7 +12142,7 @@
         <v>22</v>
       </c>
       <c r="X143" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y143" s="2">
         <v>6.79</v>
@@ -12153,7 +12150,7 @@
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B144" s="5">
         <v>0</v>
@@ -12222,7 +12219,7 @@
         <v>22</v>
       </c>
       <c r="X144" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y144" s="2">
         <v>8.36</v>
@@ -12230,7 +12227,7 @@
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B145" s="5">
         <v>0</v>
@@ -12301,13 +12298,13 @@
       <c r="X145" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y145" s="2" t="s">
-        <v>21</v>
+      <c r="Y145" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B146" s="5">
         <v>0</v>
@@ -12378,13 +12375,13 @@
       <c r="X146" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y146" s="2" t="s">
-        <v>21</v>
+      <c r="Y146" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B147" s="5">
         <v>0</v>
@@ -12455,13 +12452,13 @@
       <c r="X147" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y147" s="2" t="s">
-        <v>21</v>
+      <c r="Y147" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B148" s="5">
         <v>1</v>
@@ -12532,13 +12529,13 @@
       <c r="X148" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y148" s="2" t="s">
-        <v>21</v>
+      <c r="Y148" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B149" s="5">
         <v>1</v>
@@ -12609,13 +12606,13 @@
       <c r="X149" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y149" s="2" t="s">
-        <v>21</v>
+      <c r="Y149" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B150" s="5">
         <v>0</v>
@@ -12684,7 +12681,7 @@
         <v>23</v>
       </c>
       <c r="X150" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y150" s="2">
         <v>8.86</v>
@@ -12692,7 +12689,7 @@
     </row>
     <row r="151" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B151" s="5">
         <v>1</v>
@@ -12761,7 +12758,7 @@
         <v>24</v>
       </c>
       <c r="X151" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y151" s="2">
         <v>8.2899999999999991</v>
@@ -12769,7 +12766,7 @@
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B152" s="5">
         <v>1</v>
@@ -12838,7 +12835,7 @@
         <v>24</v>
       </c>
       <c r="X152" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y152" s="2">
         <v>8.86</v>
@@ -12846,7 +12843,7 @@
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B153" s="5">
         <v>0</v>
@@ -12917,13 +12914,13 @@
       <c r="X153" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y153" s="2" t="s">
-        <v>21</v>
+      <c r="Y153" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B154" s="5">
         <v>0</v>
@@ -12994,13 +12991,13 @@
       <c r="X154" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y154" s="2" t="s">
-        <v>21</v>
+      <c r="Y154" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B155" s="5">
         <v>0</v>
@@ -13071,13 +13068,13 @@
       <c r="X155" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y155" s="2" t="s">
-        <v>21</v>
+      <c r="Y155" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B156" s="5">
         <v>0</v>
@@ -13148,13 +13145,13 @@
       <c r="X156" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y156" s="2" t="s">
-        <v>21</v>
+      <c r="Y156" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B157" s="5">
         <v>0</v>
@@ -13225,13 +13222,13 @@
       <c r="X157" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y157" s="2" t="s">
-        <v>21</v>
+      <c r="Y157" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B158" s="5">
         <v>0</v>
@@ -13300,7 +13297,7 @@
         <v>20</v>
       </c>
       <c r="X158" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y158" s="2">
         <v>5.79</v>
@@ -13308,7 +13305,7 @@
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B159" s="5">
         <v>0</v>
@@ -13379,13 +13376,13 @@
       <c r="X159" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y159" s="2" t="s">
-        <v>21</v>
+      <c r="Y159" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B160" s="5">
         <v>0</v>
@@ -13456,13 +13453,13 @@
       <c r="X160" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y160" s="2" t="s">
-        <v>21</v>
+      <c r="Y160" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B161" s="5">
         <v>0</v>
@@ -13533,13 +13530,13 @@
       <c r="X161" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y161" s="2" t="s">
-        <v>21</v>
+      <c r="Y161" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B162" s="5">
         <v>0</v>
@@ -13610,13 +13607,13 @@
       <c r="X162" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y162" s="2" t="s">
-        <v>21</v>
+      <c r="Y162" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B163" s="5">
         <v>0</v>
@@ -13687,13 +13684,13 @@
       <c r="X163" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y163" s="2" t="s">
-        <v>21</v>
+      <c r="Y163" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B164" s="5">
         <v>0</v>
@@ -13764,13 +13761,13 @@
       <c r="X164" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y164" s="2" t="s">
-        <v>21</v>
+      <c r="Y164" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B165" s="5">
         <v>0</v>
@@ -13841,13 +13838,13 @@
       <c r="X165" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y165" s="2" t="s">
-        <v>21</v>
+      <c r="Y165" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B166" s="5">
         <v>0</v>
@@ -13918,13 +13915,13 @@
       <c r="X166" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y166" s="2" t="s">
-        <v>21</v>
+      <c r="Y166" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B167" s="5">
         <v>0</v>
@@ -13995,13 +13992,13 @@
       <c r="X167" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y167" s="2" t="s">
-        <v>21</v>
+      <c r="Y167" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B168" s="5">
         <v>0</v>
@@ -14070,7 +14067,7 @@
         <v>20</v>
       </c>
       <c r="X168" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y168" s="2">
         <v>5.07</v>
@@ -14078,7 +14075,7 @@
     </row>
     <row r="169" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B169" s="5">
         <v>0</v>
@@ -14149,13 +14146,13 @@
       <c r="X169" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y169" s="2" t="s">
-        <v>21</v>
+      <c r="Y169" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B170" s="5">
         <v>0</v>
@@ -14226,13 +14223,13 @@
       <c r="X170" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y170" s="2" t="s">
-        <v>21</v>
+      <c r="Y170" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B171" s="5">
         <v>0</v>
@@ -14303,13 +14300,13 @@
       <c r="X171" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y171" s="2" t="s">
-        <v>21</v>
+      <c r="Y171" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B172" s="5">
         <v>0</v>
@@ -14380,13 +14377,13 @@
       <c r="X172" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y172" s="2" t="s">
-        <v>21</v>
+      <c r="Y172" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B173" s="5">
         <v>0</v>
@@ -14457,13 +14454,13 @@
       <c r="X173" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y173" s="2" t="s">
-        <v>21</v>
+      <c r="Y173" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B174" s="5">
         <v>1</v>
@@ -14532,7 +14529,7 @@
         <v>19</v>
       </c>
       <c r="X174" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y174" s="2">
         <v>6.36</v>
@@ -14540,7 +14537,7 @@
     </row>
     <row r="175" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B175" s="5">
         <v>0</v>
@@ -14611,13 +14608,13 @@
       <c r="X175" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y175" s="2" t="s">
-        <v>21</v>
+      <c r="Y175" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B176" s="5">
         <v>1</v>
@@ -14688,13 +14685,13 @@
       <c r="X176" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y176" s="2" t="s">
-        <v>21</v>
+      <c r="Y176" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B177" s="5">
         <v>0</v>
@@ -14765,13 +14762,13 @@
       <c r="X177" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y177" s="2" t="s">
-        <v>21</v>
+      <c r="Y177" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B178" s="5">
         <v>0</v>
@@ -14840,7 +14837,7 @@
         <v>20</v>
       </c>
       <c r="X178" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y178" s="2">
         <v>6.43</v>
@@ -14848,7 +14845,7 @@
     </row>
     <row r="179" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B179" s="5">
         <v>0</v>
@@ -14917,7 +14914,7 @@
         <v>19</v>
       </c>
       <c r="X179" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y179" s="2">
         <v>4.8899999999999997</v>
@@ -14925,7 +14922,7 @@
     </row>
     <row r="180" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B180" s="5">
         <v>0</v>
@@ -14994,7 +14991,7 @@
         <v>17</v>
       </c>
       <c r="X180" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y180" s="2">
         <v>5.07</v>
@@ -15002,7 +14999,7 @@
     </row>
     <row r="181" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B181" s="5">
         <v>0</v>
@@ -15073,13 +15070,13 @@
       <c r="X181" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y181" s="2" t="s">
-        <v>21</v>
+      <c r="Y181" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B182" s="5">
         <v>0</v>
@@ -15150,13 +15147,13 @@
       <c r="X182" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y182" s="2" t="s">
-        <v>21</v>
+      <c r="Y182" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B183" s="5">
         <v>0</v>
@@ -15227,13 +15224,13 @@
       <c r="X183" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y183" s="2" t="s">
-        <v>21</v>
+      <c r="Y183" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B184" s="5">
         <v>0</v>
@@ -15302,7 +15299,7 @@
         <v>22</v>
       </c>
       <c r="X184" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y184" s="2">
         <v>6.68</v>
@@ -15310,7 +15307,7 @@
     </row>
     <row r="185" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B185" s="5">
         <v>1</v>
@@ -15379,7 +15376,7 @@
         <v>22</v>
       </c>
       <c r="X185" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y185" s="2">
         <v>6.46</v>
@@ -15387,7 +15384,7 @@
     </row>
     <row r="186" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B186" s="5">
         <v>0</v>
@@ -15458,13 +15455,13 @@
       <c r="X186" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y186" s="2" t="s">
-        <v>21</v>
+      <c r="Y186" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B187" s="5">
         <v>0</v>
@@ -15535,13 +15532,13 @@
       <c r="X187" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y187" s="2" t="s">
-        <v>21</v>
+      <c r="Y187" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B188" s="5">
         <v>1</v>
@@ -15612,13 +15609,13 @@
       <c r="X188" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y188" s="2" t="s">
-        <v>21</v>
+      <c r="Y188" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B189" s="5">
         <v>1</v>
@@ -15689,13 +15686,13 @@
       <c r="X189" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y189" s="2" t="s">
-        <v>21</v>
+      <c r="Y189" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B190" s="5">
         <v>0</v>
@@ -15766,13 +15763,13 @@
       <c r="X190" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y190" s="2" t="s">
-        <v>21</v>
+      <c r="Y190" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B191" s="5">
         <v>1</v>
@@ -15841,7 +15838,7 @@
         <v>22</v>
       </c>
       <c r="X191" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y191" s="2">
         <v>6</v>
@@ -15849,7 +15846,7 @@
     </row>
     <row r="192" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B192" s="5">
         <v>0</v>
@@ -15918,7 +15915,7 @@
         <v>16</v>
       </c>
       <c r="X192" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y192" s="2">
         <v>5.39</v>
@@ -15926,7 +15923,7 @@
     </row>
     <row r="193" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B193" s="5">
         <v>0</v>
@@ -15997,13 +15994,13 @@
       <c r="X193" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y193" s="2" t="s">
-        <v>21</v>
+      <c r="Y193" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B194" s="5">
         <v>0</v>
@@ -16074,13 +16071,13 @@
       <c r="X194" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y194" s="2" t="s">
-        <v>21</v>
+      <c r="Y194" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B195" s="5">
         <v>0</v>
@@ -16151,13 +16148,13 @@
       <c r="X195" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y195" s="2" t="s">
-        <v>21</v>
+      <c r="Y195" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B196" s="5">
         <v>0</v>
@@ -16228,13 +16225,13 @@
       <c r="X196" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y196" s="2" t="s">
-        <v>21</v>
+      <c r="Y196" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B197" s="5">
         <v>0</v>
@@ -16305,13 +16302,13 @@
       <c r="X197" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y197" s="2" t="s">
-        <v>21</v>
+      <c r="Y197" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B198" s="5">
         <v>0</v>
@@ -16382,13 +16379,13 @@
       <c r="X198" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y198" s="2" t="s">
-        <v>21</v>
+      <c r="Y198" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B199" s="5">
         <v>0</v>
@@ -16459,13 +16456,13 @@
       <c r="X199" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y199" s="2" t="s">
-        <v>21</v>
+      <c r="Y199" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B200" s="5">
         <v>0</v>
@@ -16536,13 +16533,13 @@
       <c r="X200" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y200" s="2" t="s">
-        <v>21</v>
+      <c r="Y200" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B201" s="5">
         <v>0</v>
@@ -16613,13 +16610,13 @@
       <c r="X201" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y201" s="2" t="s">
-        <v>21</v>
+      <c r="Y201" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B202" s="5">
         <v>0</v>
@@ -16690,13 +16687,13 @@
       <c r="X202" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y202" s="2" t="s">
-        <v>21</v>
+      <c r="Y202" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B203" s="5">
         <v>0</v>
@@ -16767,13 +16764,13 @@
       <c r="X203" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y203" s="2" t="s">
-        <v>21</v>
+      <c r="Y203" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B204" s="5">
         <v>0</v>
@@ -16844,13 +16841,13 @@
       <c r="X204" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y204" s="2" t="s">
-        <v>21</v>
+      <c r="Y204" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B205" s="5">
         <v>0</v>
@@ -16921,19 +16918,19 @@
       <c r="X205" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y205" s="2" t="s">
-        <v>21</v>
+      <c r="Y205" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B206" s="5">
+        <v>0</v>
+      </c>
+      <c r="C206" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="B206" s="5">
-        <v>0</v>
-      </c>
-      <c r="C206" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="D206" s="1">
         <v>0</v>
@@ -16998,8 +16995,8 @@
       <c r="X206" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y206" s="2" t="s">
-        <v>21</v>
+      <c r="Y206" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Cleaned-Data/2018-Passouts/Sem-3_2018_Passout_cleaned.xlsx
+++ b/Cleaned-Data/2018-Passouts/Sem-3_2018_Passout_cleaned.xlsx
@@ -101,9 +101,6 @@
     <t>P/F</t>
   </si>
   <si>
-    <t>CGPA</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -729,6 +726,9 @@
   </si>
   <si>
     <t>TAMBE SONALI SUNIL</t>
+  </si>
+  <si>
+    <t>GPA</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
@@ -1139,13 +1139,13 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -1211,12 +1211,12 @@
         <v>22</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>23</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="5">
         <v>0</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="5">
         <v>0</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="5">
         <v>0</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="5">
         <v>0</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="5">
         <v>0</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="5">
         <v>0</v>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B20" s="5">
         <v>1</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="5">
         <v>0</v>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B22" s="5">
         <v>1</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B23" s="5">
         <v>1</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B24" s="5">
         <v>1</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="5">
         <v>0</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B26" s="5">
         <v>1</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="5">
         <v>0</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="5">
         <v>0</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="5">
         <v>0</v>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="5">
         <v>0</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B31" s="5">
         <v>1</v>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="5">
         <v>0</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B33" s="5">
         <v>1</v>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="5">
         <v>0</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" s="5">
         <v>0</v>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" s="5">
         <v>0</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" s="5">
         <v>0</v>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B38" s="5">
         <v>1</v>
@@ -4065,7 +4065,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B39" s="5">
         <v>1</v>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="5">
         <v>0</v>
@@ -4219,7 +4219,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="5">
         <v>0</v>
@@ -4296,7 +4296,7 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="5">
         <v>0</v>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="5">
         <v>0</v>
@@ -4450,7 +4450,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" s="5">
         <v>0</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="5">
         <v>0</v>
@@ -4604,7 +4604,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" s="5">
         <v>0</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="5">
         <v>0</v>
@@ -4758,7 +4758,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" s="5">
         <v>0</v>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" s="5">
         <v>0</v>
@@ -4912,7 +4912,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" s="5">
         <v>0</v>
@@ -4989,7 +4989,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B51" s="5">
         <v>1</v>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B52" s="5">
         <v>1</v>
@@ -5143,7 +5143,7 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53" s="5">
         <v>0</v>
@@ -5220,7 +5220,7 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B54" s="5">
         <v>1</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55" s="5">
         <v>0</v>
@@ -5374,7 +5374,7 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" s="5">
         <v>0</v>
@@ -5451,7 +5451,7 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" s="5">
         <v>0</v>
@@ -5528,7 +5528,7 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B58" s="5">
         <v>1</v>
@@ -5605,7 +5605,7 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59" s="5">
         <v>0</v>
@@ -5682,7 +5682,7 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60" s="5">
         <v>0</v>
@@ -5759,7 +5759,7 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61" s="5">
         <v>0</v>
@@ -5836,7 +5836,7 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B62" s="5">
         <v>1</v>
@@ -5913,7 +5913,7 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63" s="5">
         <v>0</v>
@@ -5990,7 +5990,7 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B64" s="5">
         <v>1</v>
@@ -6067,7 +6067,7 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B65" s="5">
         <v>1</v>
@@ -6144,7 +6144,7 @@
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66" s="5">
         <v>0</v>
@@ -6221,7 +6221,7 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67" s="5">
         <v>0</v>
@@ -6298,7 +6298,7 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" s="5">
         <v>0</v>
@@ -6375,7 +6375,7 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" s="5">
         <v>0</v>
@@ -6452,7 +6452,7 @@
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" s="5">
         <v>0</v>
@@ -6529,7 +6529,7 @@
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" s="5">
         <v>0</v>
@@ -6606,7 +6606,7 @@
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" s="5">
         <v>0</v>
@@ -6683,7 +6683,7 @@
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" s="5">
         <v>0</v>
@@ -6760,7 +6760,7 @@
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" s="5">
         <v>0</v>
@@ -6837,7 +6837,7 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B75" s="5">
         <v>1</v>
@@ -6914,7 +6914,7 @@
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" s="5">
         <v>0</v>
@@ -6991,7 +6991,7 @@
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" s="5">
         <v>0</v>
@@ -7068,7 +7068,7 @@
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B78" s="5">
         <v>1</v>
@@ -7145,7 +7145,7 @@
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" s="5">
         <v>0</v>
@@ -7222,7 +7222,7 @@
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" s="5">
         <v>0</v>
@@ -7299,7 +7299,7 @@
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B81" s="5">
         <v>1</v>
@@ -7376,7 +7376,7 @@
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="5">
         <v>0</v>
@@ -7453,7 +7453,7 @@
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B83" s="5">
         <v>1</v>
@@ -7530,7 +7530,7 @@
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" s="5">
         <v>0</v>
@@ -7607,7 +7607,7 @@
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B85" s="5">
         <v>1</v>
@@ -7684,7 +7684,7 @@
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B86" s="5">
         <v>0</v>
@@ -7761,7 +7761,7 @@
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B87" s="5">
         <v>1</v>
@@ -7838,7 +7838,7 @@
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B88" s="5">
         <v>0</v>
@@ -7915,7 +7915,7 @@
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B89" s="5">
         <v>1</v>
@@ -7992,7 +7992,7 @@
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B90" s="5">
         <v>0</v>
@@ -8069,7 +8069,7 @@
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B91" s="5">
         <v>1</v>
@@ -8146,7 +8146,7 @@
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B92" s="5">
         <v>0</v>
@@ -8223,7 +8223,7 @@
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B93" s="5">
         <v>0</v>
@@ -8300,7 +8300,7 @@
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B94" s="5">
         <v>1</v>
@@ -8377,7 +8377,7 @@
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B95" s="5">
         <v>0</v>
@@ -8454,7 +8454,7 @@
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B96" s="5">
         <v>0</v>
@@ -8531,7 +8531,7 @@
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B97" s="5">
         <v>0</v>
@@ -8608,7 +8608,7 @@
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B98" s="5">
         <v>0</v>
@@ -8685,7 +8685,7 @@
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B99" s="5">
         <v>0</v>
@@ -8762,7 +8762,7 @@
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B100" s="5">
         <v>0</v>
@@ -8839,7 +8839,7 @@
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B101" s="5">
         <v>0</v>
@@ -8916,7 +8916,7 @@
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B102" s="5">
         <v>0</v>
@@ -8993,7 +8993,7 @@
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B103" s="5">
         <v>0</v>
@@ -9070,7 +9070,7 @@
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B104" s="5">
         <v>0</v>
@@ -9147,7 +9147,7 @@
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B105" s="5">
         <v>1</v>
@@ -9224,7 +9224,7 @@
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B106" s="5">
         <v>1</v>
@@ -9301,7 +9301,7 @@
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B107" s="5">
         <v>0</v>
@@ -9378,7 +9378,7 @@
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B108" s="5">
         <v>0</v>
@@ -9455,7 +9455,7 @@
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B109" s="5">
         <v>0</v>
@@ -9532,7 +9532,7 @@
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B110" s="5">
         <v>0</v>
@@ -9609,7 +9609,7 @@
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B111" s="5">
         <v>1</v>
@@ -9686,7 +9686,7 @@
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B112" s="5">
         <v>0</v>
@@ -9763,7 +9763,7 @@
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B113" s="5">
         <v>0</v>
@@ -9840,7 +9840,7 @@
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B114" s="5">
         <v>0</v>
@@ -9917,7 +9917,7 @@
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B115" s="5">
         <v>0</v>
@@ -9994,7 +9994,7 @@
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B116" s="5">
         <v>1</v>
@@ -10071,7 +10071,7 @@
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B117" s="5">
         <v>0</v>
@@ -10148,7 +10148,7 @@
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B118" s="5">
         <v>0</v>
@@ -10225,7 +10225,7 @@
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B119" s="5">
         <v>0</v>
@@ -10302,7 +10302,7 @@
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B120" s="5">
         <v>0</v>
@@ -10379,7 +10379,7 @@
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B121" s="5">
         <v>0</v>
@@ -10456,7 +10456,7 @@
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B122" s="5">
         <v>1</v>
@@ -10533,7 +10533,7 @@
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B123" s="5">
         <v>0</v>
@@ -10610,7 +10610,7 @@
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B124" s="5">
         <v>0</v>
@@ -10687,7 +10687,7 @@
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B125" s="5">
         <v>1</v>
@@ -10764,7 +10764,7 @@
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B126" s="5">
         <v>0</v>
@@ -10841,7 +10841,7 @@
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B127" s="5">
         <v>1</v>
@@ -10918,7 +10918,7 @@
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B128" s="5">
         <v>0</v>
@@ -10995,7 +10995,7 @@
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B129" s="5">
         <v>0</v>
@@ -11072,7 +11072,7 @@
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B130" s="5">
         <v>0</v>
@@ -11149,7 +11149,7 @@
     </row>
     <row r="131" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B131" s="5">
         <v>0</v>
@@ -11226,7 +11226,7 @@
     </row>
     <row r="132" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B132" s="5">
         <v>0</v>
@@ -11303,7 +11303,7 @@
     </row>
     <row r="133" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B133" s="5">
         <v>0</v>
@@ -11380,7 +11380,7 @@
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B134" s="5">
         <v>0</v>
@@ -11457,7 +11457,7 @@
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B135" s="5">
         <v>0</v>
@@ -11534,7 +11534,7 @@
     </row>
     <row r="136" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B136" s="5">
         <v>0</v>
@@ -11611,7 +11611,7 @@
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B137" s="5">
         <v>1</v>
@@ -11688,7 +11688,7 @@
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B138" s="5">
         <v>0</v>
@@ -11765,7 +11765,7 @@
     </row>
     <row r="139" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B139" s="5">
         <v>1</v>
@@ -11842,7 +11842,7 @@
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B140" s="5">
         <v>0</v>
@@ -11919,7 +11919,7 @@
     </row>
     <row r="141" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B141" s="5">
         <v>1</v>
@@ -11996,7 +11996,7 @@
     </row>
     <row r="142" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B142" s="5">
         <v>0</v>
@@ -12073,7 +12073,7 @@
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B143" s="5">
         <v>0</v>
@@ -12150,7 +12150,7 @@
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B144" s="5">
         <v>0</v>
@@ -12227,7 +12227,7 @@
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B145" s="5">
         <v>0</v>
@@ -12304,7 +12304,7 @@
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B146" s="5">
         <v>0</v>
@@ -12381,7 +12381,7 @@
     </row>
     <row r="147" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B147" s="5">
         <v>0</v>
@@ -12458,7 +12458,7 @@
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B148" s="5">
         <v>1</v>
@@ -12535,7 +12535,7 @@
     </row>
     <row r="149" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B149" s="5">
         <v>1</v>
@@ -12612,7 +12612,7 @@
     </row>
     <row r="150" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B150" s="5">
         <v>0</v>
@@ -12689,7 +12689,7 @@
     </row>
     <row r="151" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B151" s="5">
         <v>1</v>
@@ -12766,7 +12766,7 @@
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B152" s="5">
         <v>1</v>
@@ -12843,7 +12843,7 @@
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B153" s="5">
         <v>0</v>
@@ -12920,7 +12920,7 @@
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B154" s="5">
         <v>0</v>
@@ -12997,7 +12997,7 @@
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B155" s="5">
         <v>0</v>
@@ -13074,7 +13074,7 @@
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B156" s="5">
         <v>0</v>
@@ -13151,7 +13151,7 @@
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B157" s="5">
         <v>0</v>
@@ -13228,7 +13228,7 @@
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B158" s="5">
         <v>0</v>
@@ -13305,7 +13305,7 @@
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B159" s="5">
         <v>0</v>
@@ -13382,7 +13382,7 @@
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B160" s="5">
         <v>0</v>
@@ -13459,7 +13459,7 @@
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B161" s="5">
         <v>0</v>
@@ -13536,7 +13536,7 @@
     </row>
     <row r="162" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B162" s="5">
         <v>0</v>
@@ -13613,7 +13613,7 @@
     </row>
     <row r="163" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B163" s="5">
         <v>0</v>
@@ -13690,7 +13690,7 @@
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B164" s="5">
         <v>0</v>
@@ -13767,7 +13767,7 @@
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B165" s="5">
         <v>0</v>
@@ -13844,7 +13844,7 @@
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B166" s="5">
         <v>0</v>
@@ -13921,7 +13921,7 @@
     </row>
     <row r="167" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B167" s="5">
         <v>0</v>
@@ -13998,7 +13998,7 @@
     </row>
     <row r="168" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B168" s="5">
         <v>0</v>
@@ -14075,7 +14075,7 @@
     </row>
     <row r="169" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B169" s="5">
         <v>0</v>
@@ -14152,7 +14152,7 @@
     </row>
     <row r="170" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B170" s="5">
         <v>0</v>
@@ -14229,7 +14229,7 @@
     </row>
     <row r="171" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B171" s="5">
         <v>0</v>
@@ -14306,7 +14306,7 @@
     </row>
     <row r="172" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B172" s="5">
         <v>0</v>
@@ -14383,7 +14383,7 @@
     </row>
     <row r="173" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B173" s="5">
         <v>0</v>
@@ -14460,7 +14460,7 @@
     </row>
     <row r="174" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B174" s="5">
         <v>1</v>
@@ -14537,7 +14537,7 @@
     </row>
     <row r="175" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B175" s="5">
         <v>0</v>
@@ -14614,7 +14614,7 @@
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B176" s="5">
         <v>1</v>
@@ -14691,7 +14691,7 @@
     </row>
     <row r="177" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B177" s="5">
         <v>0</v>
@@ -14768,7 +14768,7 @@
     </row>
     <row r="178" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B178" s="5">
         <v>0</v>
@@ -14845,7 +14845,7 @@
     </row>
     <row r="179" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B179" s="5">
         <v>0</v>
@@ -14922,7 +14922,7 @@
     </row>
     <row r="180" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B180" s="5">
         <v>0</v>
@@ -14999,7 +14999,7 @@
     </row>
     <row r="181" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B181" s="5">
         <v>0</v>
@@ -15076,7 +15076,7 @@
     </row>
     <row r="182" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B182" s="5">
         <v>0</v>
@@ -15153,7 +15153,7 @@
     </row>
     <row r="183" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B183" s="5">
         <v>0</v>
@@ -15230,7 +15230,7 @@
     </row>
     <row r="184" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B184" s="5">
         <v>0</v>
@@ -15307,7 +15307,7 @@
     </row>
     <row r="185" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B185" s="5">
         <v>1</v>
@@ -15384,7 +15384,7 @@
     </row>
     <row r="186" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B186" s="5">
         <v>0</v>
@@ -15461,7 +15461,7 @@
     </row>
     <row r="187" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B187" s="5">
         <v>0</v>
@@ -15538,7 +15538,7 @@
     </row>
     <row r="188" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B188" s="5">
         <v>1</v>
@@ -15615,7 +15615,7 @@
     </row>
     <row r="189" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B189" s="5">
         <v>1</v>
@@ -15692,7 +15692,7 @@
     </row>
     <row r="190" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B190" s="5">
         <v>0</v>
@@ -15769,7 +15769,7 @@
     </row>
     <row r="191" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B191" s="5">
         <v>1</v>
@@ -15846,7 +15846,7 @@
     </row>
     <row r="192" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B192" s="5">
         <v>0</v>
@@ -15923,7 +15923,7 @@
     </row>
     <row r="193" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B193" s="5">
         <v>0</v>
@@ -16000,7 +16000,7 @@
     </row>
     <row r="194" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B194" s="5">
         <v>0</v>
@@ -16077,7 +16077,7 @@
     </row>
     <row r="195" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B195" s="5">
         <v>0</v>
@@ -16154,7 +16154,7 @@
     </row>
     <row r="196" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B196" s="5">
         <v>0</v>
@@ -16231,7 +16231,7 @@
     </row>
     <row r="197" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B197" s="5">
         <v>0</v>
@@ -16308,7 +16308,7 @@
     </row>
     <row r="198" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B198" s="5">
         <v>0</v>
@@ -16385,7 +16385,7 @@
     </row>
     <row r="199" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B199" s="5">
         <v>0</v>
@@ -16462,7 +16462,7 @@
     </row>
     <row r="200" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B200" s="5">
         <v>0</v>
@@ -16539,7 +16539,7 @@
     </row>
     <row r="201" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B201" s="5">
         <v>0</v>
@@ -16616,7 +16616,7 @@
     </row>
     <row r="202" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B202" s="5">
         <v>0</v>
@@ -16693,7 +16693,7 @@
     </row>
     <row r="203" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B203" s="5">
         <v>0</v>
@@ -16770,7 +16770,7 @@
     </row>
     <row r="204" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B204" s="5">
         <v>0</v>
@@ -16847,7 +16847,7 @@
     </row>
     <row r="205" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B205" s="5">
         <v>0</v>
@@ -16924,13 +16924,13 @@
     </row>
     <row r="206" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B206" s="5">
+        <v>0</v>
+      </c>
+      <c r="C206" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="B206" s="5">
-        <v>0</v>
-      </c>
-      <c r="C206" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="D206" s="1">
         <v>0</v>
